--- a/biology/Botanique/Square_Louis-Lumière/Square_Louis-Lumière.xlsx
+++ b/biology/Botanique/Square_Louis-Lumière/Square_Louis-Lumière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Louis-Lumi%C3%A8re</t>
+          <t>Square_Louis-Lumière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Louis-Lumière est un square du 20e arrondissement de Paris, dans le quartier de Charonne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Louis-Lumi%C3%A8re</t>
+          <t>Square_Louis-Lumière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 42, rue Louis-Lumière.
 Il est desservi par la ligne 3 à la station Porte de Bagnolet.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Louis-Lumi%C3%A8re</t>
+          <t>Square_Louis-Lumière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square rend hommage à l'inventeur du cinématographe Louis Lumière (1864-1948).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Louis-Lumi%C3%A8re</t>
+          <t>Square_Louis-Lumière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
